--- a/kaiseki/sac_kyori.xlsx
+++ b/kaiseki/sac_kyori.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{F9C7600B-4E4B-4752-9046-2EBDA78568DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A0F5C8D-18C0-4503-A233-40538CE7445F}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{F9C7600B-4E4B-4752-9046-2EBDA78568DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F95565-336F-46FB-91F2-CE6749B49CF1}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1935" yWindow="330" windowWidth="17805" windowHeight="13575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1253,6 +1253,7 @@
         <c:axId val="1348729951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1429,12 +1430,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1988,6 +1984,7 @@
         <c:axId val="1981258415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2164,12 +2161,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3318,16 +3310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>656167</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>147107</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>11641</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3646,7 +3638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R19" sqref="R19:R34"/>
     </sheetView>
   </sheetViews>
@@ -8533,8 +8525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68852211-3E56-4CFA-82DB-865B185E70C4}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD36" sqref="AD36:AF49"/>
+    <sheetView tabSelected="1" topLeftCell="J15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X42" sqref="X42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12273,12 +12265,12 @@
         <v>3.014328787206655E-5</v>
       </c>
       <c r="S44">
-        <f>T39*SQRT(138)/SQRT(T39^2)</f>
-        <v>11.74734012447073</v>
+        <f>S39*SQRT(138)/SQRT(1-S39^2)</f>
+        <v>2.8875318298500732</v>
       </c>
       <c r="T44">
         <f>TDIST(ABS(S44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>4.5090403561100596E-3</v>
       </c>
       <c r="U44">
         <f>T39*SQRT(68)/SQRT(1-T39^2)</f>
@@ -12289,12 +12281,12 @@
         <v>4.6152961227895629E-3</v>
       </c>
       <c r="W44">
-        <f>U39*SQRT(138)/SQRT(U39^2)</f>
-        <v>11.74734012447073</v>
+        <f>U39*SQRT(138)/SQRT(1-U39^2)</f>
+        <v>1.3795923385722142</v>
       </c>
       <c r="X44">
         <f>TDIST(ABS(W44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>0.16994356033002017</v>
       </c>
       <c r="Z44" t="s">
         <v>97</v>

--- a/kaiseki/sac_kyori.xlsx
+++ b/kaiseki/sac_kyori.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{F9C7600B-4E4B-4752-9046-2EBDA78568DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F95565-336F-46FB-91F2-CE6749B49CF1}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{F9C7600B-4E4B-4752-9046-2EBDA78568DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B332663-5192-45B0-B279-5B5F59F04407}"/>
   <bookViews>
-    <workbookView xWindow="-1935" yWindow="330" windowWidth="17805" windowHeight="13575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
   <si>
     <t>imahashi</t>
   </si>
@@ -858,8 +858,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>62.822766481903436</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>83.949086278904502</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>62.822766481903436</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>83.949086278904502</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -944,8 +980,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>36.116736417032833</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>52.318723479343596</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>33.822146465672461</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>57.407970061222919</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>36.116736417032833</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>52.318723479343596</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>33.822146465672461</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>57.407970061222919</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1033,8 +1111,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>36.667935559434767</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.623987224926125</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>45.892047753016705</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40.935984375891024</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>36.667935559434767</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.623987224926125</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>45.892047753016705</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40.935984375891024</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1122,8 +1242,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>51.396598285234376</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50.242970561787324</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>65.511217534549175</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>46.867492764643423</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>51.396598285234376</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50.242970561787324</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>65.511217534549175</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>46.867492764643423</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1500,8 +1662,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>36.02722831258442</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>32.629408966057234</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>36.02722831258442</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>32.629408966057234</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1586,8 +1784,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>16.220492227237926</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.767091454885801</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>61.115633453479887</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>38.314182866415557</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>16.220492227237926</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.767091454885801</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>61.115633453479887</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>38.314182866415557</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1675,8 +1915,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>51.624777964984574</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>32.45996240174366</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>44.322602442656347</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>36.795509450898713</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>51.624777964984574</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>32.45996240174366</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>44.322602442656347</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>36.795509450898713</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1764,8 +2046,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>34.383683580830329</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>30.200881818752638</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>31.080569338539817</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27.865548104156332</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>34.383683580830329</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>30.200881818752638</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>31.080569338539817</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27.865548104156332</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1853,8 +2177,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>31.526590658371049</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>29.867440005116432</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>32.625205908464842</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>32.917356490441712</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>31.526590658371049</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>29.867440005116432</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>32.625205908464842</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>32.917356490441712</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3310,16 +3676,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>592667</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>550332</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>30691</xdr:rowOff>
+      <xdr:rowOff>115357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>306916</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>53974</xdr:rowOff>
+      <xdr:rowOff>138640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3636,10 +4002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19:R34"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4393,7 +4759,7 @@
         <v>171.32576860860499</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -4440,7 +4806,7 @@
         <v>144.3305463579355</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4493,7 +4859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -4552,7 +4918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4604,8 +4970,11 @@
       <c r="R20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4669,8 +5038,23 @@
         <f>AVERAGE(B7,K7)</f>
         <v>203.79131510725151</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y21" s="12">
+        <f>_xlfn.STDEV.P($D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
+        <f>_xlfn.STDEV.P($B$7:$B$10,$D$7,$B$13,$E$9,$E$13,$K$8,$K$9,$K$16,$M$7)</f>
+        <v>62.822766481903436</v>
+      </c>
+      <c r="AB21" s="12">
+        <f>_xlfn.STDEV.P($B$7,$K$7)</f>
+        <v>83.949086278904502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -4738,8 +5122,27 @@
         <f>AVERAGE(B8:B9,B15:B16,E7:F9,F11,E13,E15:F16,H7,H9:H10,H14:H15,K8:K16,L15:L16,M13:M16,M7,M11,)</f>
         <v>179.72081439536876</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$D$4:$D$5,$I$6)</f>
+        <v>36.116736417032833</v>
+      </c>
+      <c r="Z22" s="12">
+        <f>_xlfn.STDEV.P($B$11:$B$12,$B$15:$B$16,$D$9,$D$11,$D$13,$D$15,$E$8,$E$10:$E$11,$E$14:$E$15,$F$8:$F$10,$F$16,$H$7:$H$11,$H$13,$H$15:$H$16,$K$7,$K$10:$K$15,$L$16,$M$8,$M$10,$M$12,$M$14:$M$16,)</f>
+        <v>52.318723479343596</v>
+      </c>
+      <c r="AA22" s="12">
+        <f>_xlfn.STDEV.P($B$3,$D$3)</f>
+        <v>33.822146465672461</v>
+      </c>
+      <c r="AB22" s="12">
+        <f>_xlfn.STDEV.P($B$8:$B$9,$B$15:$B$16,$E$7:$F$9,$F$11,$E$13,$E$15:$F$16,$H$7,$H$9:$H$10,$H$14:$H$15,$K$8:$K$16,$L$15:$L$16,$M$13:$M$16,$M$7,$M$11,)</f>
+        <v>57.407970061222919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -4807,8 +5210,27 @@
         <f>AVERAGE(B10:B14,C7:C16,D12,D15,E10:E12,E14,F10,F12:F14,G15,H8,H11:H13,H16,I7:I16,J8,L13:L14,M8:M10,N10,N12,N14,O7:O16,)</f>
         <v>174.19421789486177</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y23" s="12">
+        <f>_xlfn.STDEV.P($B$2:$B$3,$D$3,$C$5:$C$6,$E$6,$I$4:$I$5,$K$5:$K$6,$L$6)</f>
+        <v>36.667935559434767</v>
+      </c>
+      <c r="Z23" s="12">
+        <f>_xlfn.STDEV.P($C$7:$C$16,$B$14,$D$8,$D$10,$D$12,$D$14,$D$16,$E$16,$E$12,$E$7,$F$7,$F$11:$F$15,$G$15,$H$12,$H$14,$I$7:$I$16,$L$9,$L$11:$L$15,$M$9,$M$11,$M$13,$N$7:$N$13,$O$7:$O$16,$N$15:$N$16)</f>
+        <v>35.623987224926125</v>
+      </c>
+      <c r="AA23" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$C$5,$D$6,$F$4,$F$6,$I$3:$I$6,$K$5:$K$6,$M$5,$N$6)</f>
+        <v>45.892047753016705</v>
+      </c>
+      <c r="AB23" s="12">
+        <f>_xlfn.STDEV.P($B$10:$B$14,$C$7:$C$16,$D$12,$D$15,$E$10:$E$12,$E$14,$F$10,$F$12:$F$14,$G$15,$H$8,$H$11:$H$13,$H$16,$I$7:$I$16,$J$8,$L$13:$L$14,$M$8:$M$10,$N$10,$N$12,$N$14,$O$7:$O$16,)</f>
+        <v>40.935984375891024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -4876,8 +5298,27 @@
         <f>AVERAGE(D7:D11,D13:D14,D16,G7:G14,G16,J7,J9:J16,L7:L12,M12,N7:N9,N11,N13,N15:N16,)</f>
         <v>191.20460164207051</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X24" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y24" s="12">
+        <f>_xlfn.STDEV.P($C$2:$C$4,$D$2,$E$2:$E$5,$F$2:$F$6,$G$2:$G$6,$H$2:$H$6,$I$2:$I$3,$J$2:$J$6,$K$2:$K$4,$L$2:$L$5,$M$2:$M$6,$N$2:$N$6,$O$2:$O$6)</f>
+        <v>51.396598285234376</v>
+      </c>
+      <c r="Z24" s="12">
+        <f>_xlfn.STDEV.P($G$7:$G$14,$J$7:$J$16,$L$7:$L$8,$L$10,$N$14,)</f>
+        <v>50.242970561787324</v>
+      </c>
+      <c r="AA24" s="12">
+        <f>_xlfn.STDEV.P($B$2:$O$2,$C$3:$C$4,$C$6,$D$4,$E$3:$E$6,$D$5,$F$3,$F$5,$G$3:$H$6,$J$3:$J$6,$K$3:$K$4,$L$3:$L$6,$M$3:$O$4,$N$5:$O$5,$O$6,$M$6,)</f>
+        <v>65.511217534549175</v>
+      </c>
+      <c r="AB24" s="12">
+        <f>_xlfn.STDEV.P($D$7:$D$11,$D$13:$D$14,$D$16,$G$7:$G$14,$G$16,$J$7,$J$9:$J$16,$L$7:$L$12,$M$12,$N$7:$N$9,$N$11,$N$13,$N$15:$N$16,)</f>
+        <v>46.867492764643423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -4924,7 +5365,7 @@
         <v>46.828369368845003</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4971,7 +5412,7 @@
         <v>82.777309451778081</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -5018,7 +5459,7 @@
         <v>43.47150417206349</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -5068,7 +5509,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5127,7 +5568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -5191,8 +5632,23 @@
         <f>AVERAGE(B30,K30,)</f>
         <v>40.289720705628071</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X30" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z30" s="12">
+        <f>_xlfn.STDEV.P($B$30:$B$31,$I$30,$K$31,$M$22:$M$23,)</f>
+        <v>36.02722831258442</v>
+      </c>
+      <c r="AA30" s="12">
+        <f>_xlfn.STDEV.P($I$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="12">
+        <f>_xlfn.STDEV.P($B$30,$K$30,)</f>
+        <v>32.629408966057234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -5260,8 +5716,27 @@
         <f>AVERAGE(B28,B31,C30:E30,C31,H31:I31,I30,K29,K31,M24:M27,N30:O30,)</f>
         <v>87.787495910917357</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X31" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y31" s="12">
+        <f>_xlfn.STDEV.P($B$17,$B$21,$D$21)</f>
+        <v>16.220492227237926</v>
+      </c>
+      <c r="Z31" s="12">
+        <f>_xlfn.STDEV.P($B$26,$B$28:$B$29,$D$22:$D$24,$D$26,$D$28,$C$30:$D$31,$E$31,$I$26,$I$28,$I$31,$K$30,$M$30:$M$31,$M$24,$O$31,$M$25,$M$28,$M$26:$M$27,)</f>
+        <v>35.767091454885801</v>
+      </c>
+      <c r="AA31" s="12">
+        <f>_xlfn.STDEV.P($B$20,$D$21:$E$21,$K$21,)</f>
+        <v>61.115633453479887</v>
+      </c>
+      <c r="AB31" s="12">
+        <f>_xlfn.STDEV.P($B$28,$B$31,$C$30:$E$30,$C$31,$H$31:$I$31,$I$30,$K$29,$K$31,$M$24:$M$27,$N$30:$O$30,)</f>
+        <v>38.314182866415557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q32" t="s">
         <v>56</v>
       </c>
@@ -5284,8 +5759,27 @@
         <f>AVERAGE(B24:B25,B27,B29,C28:C29,D24:D26,D31:F31,F30,F26,H27,H29:H30,I25:I29,K22:K23,K27:K28,L24,L26:L28,L30:L31,M28:M31,N22,N25:N26,N28,N31:O31,)</f>
         <v>94.889568795521029</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y32" s="12">
+        <f>_xlfn.STDEV.P($B$19:$B$20,$D$20,$D$18,$E$21,$I$21,$K$21,)</f>
+        <v>51.624777964984574</v>
+      </c>
+      <c r="Z32" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$25,$C$22,$C$28:$C$29,$D$25,$D$27,$D$29,$H$22:$I$22,$I$24,$I$27,$N$28,$K$28:$L$28,$K$29,$M$29,$H$28,$I$29,$H$30:$H$31,$K$22:$K$23,$L$30:$L$31,$N$30:$N$31,$O$30,)</f>
+        <v>32.45996240174366</v>
+      </c>
+      <c r="AA32" s="12">
+        <f>_xlfn.STDEV.P($B$18:$B$19,$B$21,$D$17,$E$20,$F$21,$I$19:$I$20,$K$19:$K$20,)</f>
+        <v>44.322602442656347</v>
+      </c>
+      <c r="AB32" s="12">
+        <f>_xlfn.STDEV.P($B$24:$B$25,$B$27,$B$29,$C$28:$C$29,$D$24:$D$26,$D$31:$F$31,$F$30,$F$26,$H$27,$H$29:$H$30,$I$25:$I$29,$K$22:$K$23,$K$27:$K$28,$L$24,$L$26:$L$28,$L$30:$L$31,$M$28:$M$31,$N$22,$N$25:$N$26,$N$28,$N$31:$O$31,)</f>
+        <v>36.795509450898713</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -5311,8 +5805,27 @@
         <f>AVERAGE(B22:B23,B26,C22:C27,D22,D27,D29,F22:F25,F27:F29,G22,G26:H26,G28:G31,H28,H22:H23,I22:I24,J31,K24:K26,L25,L29,L22:M23,N23:N24,O22:O25,N27:O27,O28:O29,N29,)</f>
         <v>84.10301476913358</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y33" s="12">
+        <f>_xlfn.STDEV.P($D$17,$B$18,$C$21,$D$19,$E$19:$E$20,$F$20:$F$21,$I$20,$N$17:$N$21,$L$20:$M$21,$O$21,)</f>
+        <v>34.383683580830329</v>
+      </c>
+      <c r="Z33" s="12">
+        <f>_xlfn.STDEV.P($B$27,$C$23:$C$27,$E$22,$E$26,$E$28,$E$30,$F$22:$F$30,$G$22:$G$24,$F$31,$G$26,$G$28,$G$30:$G$31,$H$23:$H$24,$H$27,$H$29,$I$23,$I$25,$K$24:$K$27,$L$22:$L$27,$L$29,$N$22:$N$27,$O$22:$O$29,$N$29)</f>
+        <v>30.200881818752638</v>
+      </c>
+      <c r="AA33" s="12">
+        <f>_xlfn.STDEV.P($C$21,$D$19:$D$20,$F$19:$F$20,$G$21:$H$21,$I$17:$J$17,$N$17,$L$19:$N$21,$O$20:$O$21,)</f>
+        <v>31.080569338539817</v>
+      </c>
+      <c r="AB33" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$23,$B$26,$C$22:$C$27,$D$22,$D$27,$D$29,$F$22:$F$25,$F$27:$F$29,$G$22,$G$26:$H$26,$G$28:$G$31,$H$28,$H$22:$H$23,$I$22:$I$24,$J$31,$K$24:$K$26,$L$25,$L$29,$L$22:$M$23,$N$23:$N$24,$O$22:$O$25,$N$27:$O$27,$O$28:$O$29,$N$29,)</f>
+        <v>27.865548104156332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5377,8 +5890,27 @@
         <f>AVERAGE(D23,D28,E22:E29,G23:G25,G27,H24:H25,J22:J30,O26,)</f>
         <v>78.168827967851726</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y34" s="12">
+        <f>_xlfn.STDEV.P($C$17:$C$20,$E$17:$E$18,$F$17:$F$19,$G$17:$H$21,$I$17:$I$19,$J$17:$J$21,$K$17:$K$20,$L$17:$M$19,$O$17:$O$20,)</f>
+        <v>31.526590658371049</v>
+      </c>
+      <c r="Z34" s="12">
+        <f>_xlfn.STDEV.P($E$23:$E$25,$E$27,$E$29,$G$25,$G$27,$G$29,$H$25:$H$26,$J$22:$J$31)</f>
+        <v>29.867440005116432</v>
+      </c>
+      <c r="AA34" s="12">
+        <f>_xlfn.STDEV.P($B$17:$C$17,$C$18:$C$20,$D$18:$H$18,$E$17:$H$17,$E$19,$G$19:$H$20,$I$18,$J$18:$J$21,$K$17:$M$18,$N$18,$O$17:$O$19,)</f>
+        <v>32.625205908464842</v>
+      </c>
+      <c r="AB34" s="12">
+        <f>_xlfn.STDEV.P($D$23,$D$28,$E$22:$E$29,$G$23:$G$25,$G$27,$H$24:$H$25,$J$22:$J$30,$O$26,)</f>
+        <v>32.917356490441712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5425,7 +5957,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -5472,7 +6004,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -5519,7 +6051,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -5566,7 +6098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -5613,7 +6145,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5660,7 +6192,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -5707,7 +6239,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -5754,7 +6286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -5801,7 +6333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -5848,7 +6380,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -5895,7 +6427,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -5942,7 +6474,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -5989,7 +6521,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -8525,7 +9057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68852211-3E56-4CFA-82DB-865B185E70C4}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="J15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="X42" sqref="X42"/>
     </sheetView>
   </sheetViews>

--- a/kaiseki/sac_kyori.xlsx
+++ b/kaiseki/sac_kyori.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flowe\OneDrive\ドキュメント\b4_analysis\kaiseki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{F9C7600B-4E4B-4752-9046-2EBDA78568DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B332663-5192-45B0-B279-5B5F59F04407}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2FEE15-DB7D-4E6A-A7BD-9245C423133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="2445" windowWidth="19740" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="133">
   <si>
     <t>imahashi</t>
   </si>
@@ -449,6 +452,154 @@
   <si>
     <t>t 境界値 両側</t>
   </si>
+  <si>
+    <t>通常：事前</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常：事後</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル2</t>
+  </si>
+  <si>
+    <t>SSE:レベル3</t>
+  </si>
+  <si>
+    <t>SSE:レベル4</t>
+  </si>
+  <si>
+    <t>SSE:レベル5</t>
+  </si>
+  <si>
+    <t>p_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パズル・事前SSE</t>
+    <rPh sb="4" eb="6">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パズル・事後SSE</t>
+    <rPh sb="4" eb="6">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イライラ棒・事前SSE</t>
+    <rPh sb="4" eb="5">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イライラ棒・事後SSE</t>
+    <rPh sb="4" eb="5">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>被験者</t>
+    <rPh sb="0" eb="3">
+      <t>ヒケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nomura</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t-検定: 分散が等しくないと仮定した２標本による検定</t>
+  </si>
 </sst>
 </file>
 
@@ -495,7 +646,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -618,11 +769,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -646,6 +817,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -764,7 +938,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -803,13 +977,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -841,7 +1015,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -916,13 +1090,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -963,7 +1137,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1044,13 +1218,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1094,7 +1268,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1175,13 +1349,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1225,7 +1399,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1306,13 +1480,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1536,45 +1710,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1583,6 +1718,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1645,7 +1811,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1720,13 +1886,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1767,7 +1933,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1848,13 +2014,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1898,7 +2064,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1979,13 +2145,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2029,7 +2195,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2110,13 +2276,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2160,7 +2326,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2241,13 +2407,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2471,45 +2637,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2518,6 +2645,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3640,16 +3798,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>84667</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>62440</xdr:rowOff>
+      <xdr:rowOff>73024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>529167</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>75140</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3677,15 +3835,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>550332</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>115357</xdr:rowOff>
+      <xdr:colOff>497415</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>62440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>306916</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>138640</xdr:rowOff>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>75140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3711,10 +3869,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4002,10 +4156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB102"/>
+  <dimension ref="A1:AL120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" topLeftCell="L42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4027,7 +4181,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4906,13 +5060,13 @@
         <v>126.71111025409969</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T19" t="s">
         <v>51</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="V19" t="s">
         <v>53</v>
@@ -4968,7 +5122,7 @@
         <v>54</v>
       </c>
       <c r="R20" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="X20" t="s">
         <v>64</v>
@@ -5024,7 +5178,7 @@
         <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="S21" s="12">
         <f>AVERAGE(D6)</f>
@@ -5104,7 +5258,7 @@
         <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S22" s="12">
         <f>AVERAGE(B4:B6,D4:D5,I6)</f>
@@ -5192,7 +5346,7 @@
         <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="S23" s="12">
         <f>AVERAGE(B2:B3,D3,C5:C6,E6,I4:I5,K5:K6,L6)</f>
@@ -5280,7 +5434,7 @@
         <v>58</v>
       </c>
       <c r="R24" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="S24" s="12">
         <f>AVERAGE(C2:C4,D2,E2:E5,F2:F6,G2:G6,H2:H6,I2:I3,J2:J6,K2:K4,L2:L5,M2:M6,N2:N6,O2:O6)</f>
@@ -5556,13 +5710,13 @@
         <v>62.03495905420229</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T29" t="s">
         <v>51</v>
       </c>
       <c r="U29" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="V29" t="s">
         <v>53</v>
@@ -5618,7 +5772,7 @@
         <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="T30" s="12">
         <f>AVERAGE(B30:B31,I30,K31,M22:M23,)</f>
@@ -5698,7 +5852,7 @@
         <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="S31" s="12">
         <f>AVERAGE(B17,B21,D21)</f>
@@ -5741,7 +5895,7 @@
         <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S32" s="12">
         <f>AVERAGE(B19:B20,D20,D18,E21,I21,K21,)</f>
@@ -5779,7 +5933,7 @@
         <v>36.795509450898713</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -5787,7 +5941,7 @@
         <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="S33" s="12">
         <f>AVERAGE(D17,B18,C21,D19,E19:E20,F20:F21,I20,N17:N21,L20:M21,O21,)</f>
@@ -5825,7 +5979,7 @@
         <v>27.865548104156332</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5872,7 +6026,7 @@
         <v>58</v>
       </c>
       <c r="R34" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="S34" s="12">
         <f>AVERAGE(C17:C20,E17:E18,F17:F19,G17:H21,I17:I19,J17:J21,K17:K20,L17:M19,O17:O20,)</f>
@@ -5910,7 +6064,7 @@
         <v>32.917356490441712</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5957,7 +6111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -6004,7 +6158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -6051,7 +6205,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -6098,7 +6252,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -6145,7 +6299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -6191,8 +6345,50 @@
       <c r="O40" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -6238,8 +6434,67 @@
       <c r="O41" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="P41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q41" s="12">
+        <f>CORREL(B2:B16,B35:B49)</f>
+        <v>0.54598985565155589</v>
+      </c>
+      <c r="R41" s="12">
+        <f>CORREL(C2:C16,C35:C49)</f>
+        <v>0.81386031471705111</v>
+      </c>
+      <c r="S41" s="12">
+        <f>CORREL(D2:D16,D35:D49)</f>
+        <v>0.27417039543920418</v>
+      </c>
+      <c r="T41" s="12">
+        <f>CORREL(E2:E16,E35:E49)</f>
+        <v>0.71548050232761318</v>
+      </c>
+      <c r="U41" s="12">
+        <f t="shared" ref="U41:AD41" si="0">CORREL(F2:F16,F35:F49)</f>
+        <v>0.71947620208505725</v>
+      </c>
+      <c r="V41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.56994045618713329</v>
+      </c>
+      <c r="W41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.88089812624853259</v>
+      </c>
+      <c r="X41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.65145735212675082</v>
+      </c>
+      <c r="Y41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.4759505552813027</v>
+      </c>
+      <c r="Z41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.61868058295332573</v>
+      </c>
+      <c r="AA41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.62625446878285806</v>
+      </c>
+      <c r="AB41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.79043472554488614</v>
+      </c>
+      <c r="AC41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.76114099954273939</v>
+      </c>
+      <c r="AD41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.87159616616045688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -6285,8 +6540,67 @@
       <c r="O42" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="P42" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q42" s="12">
+        <f>CORREL(B2:B16,B71:B85)</f>
+        <v>0.39787728664998606</v>
+      </c>
+      <c r="R42" s="12">
+        <f>CORREL(C2:C16,C71:C85)</f>
+        <v>0.82102133232061203</v>
+      </c>
+      <c r="S42" s="12">
+        <f>CORREL(D2:D16,D71:D85)</f>
+        <v>-0.11899643026617746</v>
+      </c>
+      <c r="T42" s="12">
+        <f>CORREL(E2:E16,E71:E85)</f>
+        <v>0.69633808076584214</v>
+      </c>
+      <c r="U42" s="12">
+        <f t="shared" ref="U42:AD42" si="1">CORREL(F2:F16,F71:F85)</f>
+        <v>0.64714569564489255</v>
+      </c>
+      <c r="V42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.48354995188588573</v>
+      </c>
+      <c r="W42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.92413421711849653</v>
+      </c>
+      <c r="X42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.68529836746906136</v>
+      </c>
+      <c r="Y42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.36260477141234498</v>
+      </c>
+      <c r="Z42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.661918685731538</v>
+      </c>
+      <c r="AA42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.44687322898738324</v>
+      </c>
+      <c r="AB42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.83221403879627809</v>
+      </c>
+      <c r="AC42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.65746926383586657</v>
+      </c>
+      <c r="AD42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.85159719270353174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -6332,8 +6646,67 @@
       <c r="O43" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="P43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q43" s="12">
+        <f>CORREL(B17:B31,B50:B64)</f>
+        <v>0.254957636539001</v>
+      </c>
+      <c r="R43" s="12">
+        <f>CORREL(C17:C31,C50:C64)</f>
+        <v>0.35152046833431227</v>
+      </c>
+      <c r="S43" s="12">
+        <f>CORREL(D17:D31,D50:D64)</f>
+        <v>4.7793351614326074E-2</v>
+      </c>
+      <c r="T43" s="12">
+        <f>CORREL(E17:E31,E50:E64)</f>
+        <v>-0.56373930493707347</v>
+      </c>
+      <c r="U43" s="12">
+        <f t="shared" ref="U43:AD43" si="2">CORREL(F17:F31,F50:F64)</f>
+        <v>0.88702961031944449</v>
+      </c>
+      <c r="V43" s="12">
+        <f t="shared" si="2"/>
+        <v>0.52282989166681637</v>
+      </c>
+      <c r="W43" s="12">
+        <f t="shared" si="2"/>
+        <v>0.57149024126250447</v>
+      </c>
+      <c r="X43" s="12">
+        <f t="shared" si="2"/>
+        <v>0.18901096097120093</v>
+      </c>
+      <c r="Y43" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.25354280269145446</v>
+      </c>
+      <c r="Z43" s="12">
+        <f t="shared" si="2"/>
+        <v>0.80433542413494263</v>
+      </c>
+      <c r="AA43" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.33227806900760232</v>
+      </c>
+      <c r="AB43" s="12">
+        <f t="shared" si="2"/>
+        <v>0.35256125243763764</v>
+      </c>
+      <c r="AC43" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.20939541384999699</v>
+      </c>
+      <c r="AD43" s="12">
+        <f t="shared" si="2"/>
+        <v>0.64093341193468634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -6379,8 +6752,67 @@
       <c r="O44" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="P44" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q44" s="12">
+        <f>CORREL(B17:B31,B86:B100)</f>
+        <v>0.37481830931747601</v>
+      </c>
+      <c r="R44" s="12">
+        <f>CORREL(C17:C31,C86:C100)</f>
+        <v>0.40659614841023062</v>
+      </c>
+      <c r="S44" s="12">
+        <f>CORREL(D17:D31,D86:D100)</f>
+        <v>-0.47516726489713879</v>
+      </c>
+      <c r="T44" s="12">
+        <f>CORREL(E17:E31,E86:E100)</f>
+        <v>-0.61770023077126557</v>
+      </c>
+      <c r="U44" s="12">
+        <f t="shared" ref="U44:AD44" si="3">CORREL(F17:F31,F86:F100)</f>
+        <v>0.93273122214126114</v>
+      </c>
+      <c r="V44" s="12">
+        <f t="shared" si="3"/>
+        <v>0.50470247769756571</v>
+      </c>
+      <c r="W44" s="12">
+        <f t="shared" si="3"/>
+        <v>0.59461359080557441</v>
+      </c>
+      <c r="X44" s="12">
+        <f t="shared" si="3"/>
+        <v>0.198783551469144</v>
+      </c>
+      <c r="Y44" s="12">
+        <f t="shared" si="3"/>
+        <v>-0.20851641542058588</v>
+      </c>
+      <c r="Z44" s="12">
+        <f t="shared" si="3"/>
+        <v>0.56083537357949742</v>
+      </c>
+      <c r="AA44" s="12">
+        <f t="shared" si="3"/>
+        <v>-0.1334256098928891</v>
+      </c>
+      <c r="AB44" s="12">
+        <f t="shared" si="3"/>
+        <v>0.60614389540542679</v>
+      </c>
+      <c r="AC44" s="12">
+        <f t="shared" si="3"/>
+        <v>-0.37137435091117338</v>
+      </c>
+      <c r="AD44" s="12">
+        <f t="shared" si="3"/>
+        <v>0.51851308070659119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -6427,7 +6859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -6474,7 +6906,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -6521,7 +6953,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -6567,8 +6999,66 @@
       <c r="O48" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q48" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="S48" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="U48" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="V48" s="16"/>
+      <c r="Y48">
+        <v>0.54598985565155589</v>
+      </c>
+      <c r="Z48">
+        <v>0.81386031471705111</v>
+      </c>
+      <c r="AA48">
+        <v>0.27417039543920418</v>
+      </c>
+      <c r="AB48">
+        <v>0.71548050232761318</v>
+      </c>
+      <c r="AC48">
+        <v>0.71947620208505725</v>
+      </c>
+      <c r="AD48">
+        <v>0.56994045618713329</v>
+      </c>
+      <c r="AE48">
+        <v>0.88089812624853259</v>
+      </c>
+      <c r="AF48">
+        <v>0.65145735212675082</v>
+      </c>
+      <c r="AG48">
+        <v>0.4759505552813027</v>
+      </c>
+      <c r="AH48">
+        <v>0.61868058295332573</v>
+      </c>
+      <c r="AI48">
+        <v>0.62625446878285806</v>
+      </c>
+      <c r="AJ48">
+        <v>0.79043472554488614</v>
+      </c>
+      <c r="AK48">
+        <v>0.76114099954273939</v>
+      </c>
+      <c r="AL48">
+        <v>0.87159616616045688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
@@ -6614,8 +7104,65 @@
       <c r="O49" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q49" t="s">
+        <v>117</v>
+      </c>
+      <c r="R49" s="12">
+        <v>0.54598985565155589</v>
+      </c>
+      <c r="S49" s="12">
+        <v>0.39787728664998606</v>
+      </c>
+      <c r="T49" s="12">
+        <v>0.254957636539001</v>
+      </c>
+      <c r="U49" s="12">
+        <v>0.37481830931747601</v>
+      </c>
+      <c r="Y49">
+        <v>0.39787728664998606</v>
+      </c>
+      <c r="Z49">
+        <v>0.82102133232061203</v>
+      </c>
+      <c r="AA49">
+        <v>-0.11899643026617746</v>
+      </c>
+      <c r="AB49">
+        <v>0.69633808076584214</v>
+      </c>
+      <c r="AC49">
+        <v>0.64714569564489255</v>
+      </c>
+      <c r="AD49">
+        <v>0.48354995188588573</v>
+      </c>
+      <c r="AE49">
+        <v>0.92413421711849653</v>
+      </c>
+      <c r="AF49">
+        <v>0.68529836746906136</v>
+      </c>
+      <c r="AG49">
+        <v>0.36260477141234498</v>
+      </c>
+      <c r="AH49">
+        <v>0.661918685731538</v>
+      </c>
+      <c r="AI49">
+        <v>0.44687322898738324</v>
+      </c>
+      <c r="AJ49">
+        <v>0.83221403879627809</v>
+      </c>
+      <c r="AK49">
+        <v>0.65746926383586657</v>
+      </c>
+      <c r="AL49">
+        <v>0.85159719270353174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
@@ -6661,8 +7208,65 @@
       <c r="O50" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q50" t="s">
+        <v>118</v>
+      </c>
+      <c r="R50" s="12">
+        <v>0.81386031471705111</v>
+      </c>
+      <c r="S50" s="12">
+        <v>0.82102133232061203</v>
+      </c>
+      <c r="T50" s="12">
+        <v>0.35152046833431227</v>
+      </c>
+      <c r="U50" s="12">
+        <v>0.40659614841023062</v>
+      </c>
+      <c r="Y50">
+        <v>0.254957636539001</v>
+      </c>
+      <c r="Z50">
+        <v>0.35152046833431227</v>
+      </c>
+      <c r="AA50">
+        <v>4.7793351614326074E-2</v>
+      </c>
+      <c r="AB50">
+        <v>-0.56373930493707347</v>
+      </c>
+      <c r="AC50">
+        <v>0.88702961031944449</v>
+      </c>
+      <c r="AD50">
+        <v>0.52282989166681637</v>
+      </c>
+      <c r="AE50">
+        <v>0.57149024126250447</v>
+      </c>
+      <c r="AF50">
+        <v>0.18901096097120093</v>
+      </c>
+      <c r="AG50">
+        <v>-0.25354280269145446</v>
+      </c>
+      <c r="AH50">
+        <v>0.80433542413494263</v>
+      </c>
+      <c r="AI50">
+        <v>-0.33227806900760232</v>
+      </c>
+      <c r="AJ50">
+        <v>0.35256125243763764</v>
+      </c>
+      <c r="AK50">
+        <v>-0.20939541384999699</v>
+      </c>
+      <c r="AL50">
+        <v>0.64093341193468634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>30</v>
       </c>
@@ -6708,8 +7312,65 @@
       <c r="O51" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q51" t="s">
+        <v>119</v>
+      </c>
+      <c r="R51" s="12">
+        <v>0.27417039543920418</v>
+      </c>
+      <c r="S51" s="12">
+        <v>-0.11899643026617746</v>
+      </c>
+      <c r="T51" s="12">
+        <v>4.7793351614326074E-2</v>
+      </c>
+      <c r="U51" s="12">
+        <v>-0.47516726489713879</v>
+      </c>
+      <c r="Y51">
+        <v>0.37481830931747601</v>
+      </c>
+      <c r="Z51">
+        <v>0.40659614841023062</v>
+      </c>
+      <c r="AA51">
+        <v>-0.47516726489713879</v>
+      </c>
+      <c r="AB51">
+        <v>-0.61770023077126557</v>
+      </c>
+      <c r="AC51">
+        <v>0.93273122214126114</v>
+      </c>
+      <c r="AD51">
+        <v>0.50470247769756571</v>
+      </c>
+      <c r="AE51">
+        <v>0.59461359080557441</v>
+      </c>
+      <c r="AF51">
+        <v>0.198783551469144</v>
+      </c>
+      <c r="AG51">
+        <v>-0.20851641542058588</v>
+      </c>
+      <c r="AH51">
+        <v>0.56083537357949742</v>
+      </c>
+      <c r="AI51">
+        <v>-0.1334256098928891</v>
+      </c>
+      <c r="AJ51">
+        <v>0.60614389540542679</v>
+      </c>
+      <c r="AK51">
+        <v>-0.37137435091117338</v>
+      </c>
+      <c r="AL51">
+        <v>0.51851308070659119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>31</v>
       </c>
@@ -6755,8 +7416,23 @@
       <c r="O52" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q52" t="s">
+        <v>120</v>
+      </c>
+      <c r="R52" s="12">
+        <v>0.71548050232761318</v>
+      </c>
+      <c r="S52" s="12">
+        <v>0.69633808076584214</v>
+      </c>
+      <c r="T52" s="12">
+        <v>-0.56373930493707347</v>
+      </c>
+      <c r="U52" s="12">
+        <v>-0.61770023077126557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>32</v>
       </c>
@@ -6802,8 +7478,23 @@
       <c r="O53" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q53" t="s">
+        <v>121</v>
+      </c>
+      <c r="R53" s="12">
+        <v>0.71947620208505725</v>
+      </c>
+      <c r="S53" s="12">
+        <v>0.64714569564489255</v>
+      </c>
+      <c r="T53" s="12">
+        <v>0.88702961031944449</v>
+      </c>
+      <c r="U53" s="12">
+        <v>0.93273122214126114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
@@ -6849,8 +7540,23 @@
       <c r="O54" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q54" t="s">
+        <v>122</v>
+      </c>
+      <c r="R54" s="12">
+        <v>0.56994045618713329</v>
+      </c>
+      <c r="S54" s="12">
+        <v>0.48354995188588573</v>
+      </c>
+      <c r="T54" s="12">
+        <v>0.52282989166681637</v>
+      </c>
+      <c r="U54" s="12">
+        <v>0.50470247769756571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -6896,8 +7602,23 @@
       <c r="O55" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q55" t="s">
+        <v>123</v>
+      </c>
+      <c r="R55" s="12">
+        <v>0.88089812624853259</v>
+      </c>
+      <c r="S55" s="12">
+        <v>0.92413421711849653</v>
+      </c>
+      <c r="T55" s="12">
+        <v>0.57149024126250447</v>
+      </c>
+      <c r="U55" s="12">
+        <v>0.59461359080557441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -6943,8 +7664,23 @@
       <c r="O56" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q56" t="s">
+        <v>124</v>
+      </c>
+      <c r="R56" s="12">
+        <v>0.65145735212675082</v>
+      </c>
+      <c r="S56" s="12">
+        <v>0.68529836746906136</v>
+      </c>
+      <c r="T56" s="12">
+        <v>0.18901096097120093</v>
+      </c>
+      <c r="U56" s="12">
+        <v>0.198783551469144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>36</v>
       </c>
@@ -6990,8 +7726,23 @@
       <c r="O57" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q57" t="s">
+        <v>125</v>
+      </c>
+      <c r="R57" s="12">
+        <v>0.4759505552813027</v>
+      </c>
+      <c r="S57" s="12">
+        <v>0.36260477141234498</v>
+      </c>
+      <c r="T57" s="12">
+        <v>-0.25354280269145446</v>
+      </c>
+      <c r="U57" s="12">
+        <v>-0.20851641542058588</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>37</v>
       </c>
@@ -7037,8 +7788,23 @@
       <c r="O58" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q58" t="s">
+        <v>126</v>
+      </c>
+      <c r="R58" s="12">
+        <v>0.61868058295332573</v>
+      </c>
+      <c r="S58" s="12">
+        <v>0.661918685731538</v>
+      </c>
+      <c r="T58" s="12">
+        <v>0.80433542413494263</v>
+      </c>
+      <c r="U58" s="12">
+        <v>0.56083537357949742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
@@ -7084,8 +7850,23 @@
       <c r="O59" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q59" t="s">
+        <v>127</v>
+      </c>
+      <c r="R59" s="12">
+        <v>0.62625446878285806</v>
+      </c>
+      <c r="S59" s="12">
+        <v>0.44687322898738324</v>
+      </c>
+      <c r="T59" s="12">
+        <v>-0.33227806900760232</v>
+      </c>
+      <c r="U59" s="12">
+        <v>-0.1334256098928891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
@@ -7131,8 +7912,23 @@
       <c r="O60" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q60" t="s">
+        <v>128</v>
+      </c>
+      <c r="R60" s="12">
+        <v>0.79043472554488614</v>
+      </c>
+      <c r="S60" s="12">
+        <v>0.83221403879627809</v>
+      </c>
+      <c r="T60" s="12">
+        <v>0.35256125243763764</v>
+      </c>
+      <c r="U60" s="12">
+        <v>0.60614389540542679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>40</v>
       </c>
@@ -7178,8 +7974,23 @@
       <c r="O61" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q61" t="s">
+        <v>129</v>
+      </c>
+      <c r="R61" s="12">
+        <v>0.76114099954273939</v>
+      </c>
+      <c r="S61" s="12">
+        <v>0.65746926383586657</v>
+      </c>
+      <c r="T61" s="12">
+        <v>-0.20939541384999699</v>
+      </c>
+      <c r="U61" s="12">
+        <v>-0.37137435091117338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>41</v>
       </c>
@@ -7225,8 +8036,24 @@
       <c r="O62" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q62" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="R62" s="17">
+        <v>0.87159616616045688</v>
+      </c>
+      <c r="S62" s="17">
+        <v>0.85159719270353174</v>
+      </c>
+      <c r="T62" s="17">
+        <v>0.64093341193468634</v>
+      </c>
+      <c r="U62" s="17">
+        <v>0.51851308070659119</v>
+      </c>
+      <c r="V62" s="15"/>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>42</v>
       </c>
@@ -7272,8 +8099,16 @@
       <c r="O63" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R63" s="12">
+        <f>AVERAGE(R49:R62)</f>
+        <v>0.66538076450346195</v>
+      </c>
+      <c r="S63" s="12">
+        <f>AVERAGE(S49:S62)</f>
+        <v>0.5963604059325387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>43</v>
       </c>
@@ -7319,141 +8154,297 @@
       <c r="O64" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R64" s="12">
+        <f>MEDIAN(R49:R62)</f>
+        <v>0.683468927227182</v>
+      </c>
+      <c r="S64" s="12">
+        <f>MEDIAN(S49:S62)</f>
+        <v>0.65969397478370229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B65">
-        <f t="shared" ref="B65:O65" si="0">CORREL(B2:B16,B35:B49)</f>
+        <f t="shared" ref="B65:O65" si="4">CORREL(B2:B16,B35:B49)</f>
         <v>0.54598985565155589</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.81386031471705111</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.27417039543920418</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f>CORREL(E2:E16,E35:E49)</f>
         <v>0.71548050232761318</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.71947620208505725</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.56994045618713329</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.88089812624853259</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.65145735212675082</v>
       </c>
       <c r="J65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.4759505552813027</v>
       </c>
       <c r="K65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.61868058295332573</v>
       </c>
       <c r="L65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.62625446878285806</v>
       </c>
       <c r="M65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.79043472554488614</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.76114099954273939</v>
       </c>
       <c r="O65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.87159616616045688</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q65" t="s">
+        <v>117</v>
+      </c>
+      <c r="R65" t="s">
+        <v>70</v>
+      </c>
+      <c r="S65" t="s">
+        <v>70</v>
+      </c>
+      <c r="T65" t="s">
+        <v>70</v>
+      </c>
+      <c r="U65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:O66" si="1">CORREL(B17:B31,B50:B64)</f>
+        <f t="shared" ref="B66:O66" si="5">CORREL(B17:B31,B50:B64)</f>
         <v>0.254957636539001</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.35152046833431227</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.7793351614326074E-2</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f>CORREL(E17:E31,E50:E64)</f>
         <v>-0.56373930493707347</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.88702961031944449</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.52282989166681637</v>
       </c>
       <c r="H66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.57149024126250447</v>
       </c>
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.18901096097120093</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.25354280269145446</v>
       </c>
       <c r="K66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.80433542413494263</v>
       </c>
       <c r="L66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.33227806900760232</v>
       </c>
       <c r="M66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.35256125243763764</v>
       </c>
       <c r="N66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.20939541384999699</v>
       </c>
       <c r="O66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.64093341193468634</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R66">
+        <f>R49*SQRT(13)/SQRT(1-R49^2)</f>
+        <v>2.3497418477456575</v>
+      </c>
+      <c r="S66">
+        <f t="shared" ref="S66:U66" si="6">S49*SQRT(13)/SQRT(1-S49^2)</f>
+        <v>1.5636652852685575</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="6"/>
+        <v>0.95068071489035011</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="6"/>
+        <v>1.4576951022350753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R67" t="s">
+        <v>71</v>
+      </c>
+      <c r="S67" t="s">
+        <v>71</v>
+      </c>
+      <c r="T67" t="s">
+        <v>71</v>
+      </c>
+      <c r="U67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B68" s="3">
+        <v>70</v>
+      </c>
+      <c r="C68" s="3">
+        <v>70</v>
+      </c>
+      <c r="D68" s="3">
+        <v>60</v>
+      </c>
+      <c r="E68" s="3">
+        <v>50</v>
+      </c>
+      <c r="F68" s="3">
+        <v>50</v>
+      </c>
+      <c r="G68" s="3">
+        <v>40</v>
+      </c>
+      <c r="H68" s="3">
+        <v>30</v>
+      </c>
+      <c r="I68" s="3">
+        <v>30</v>
+      </c>
+      <c r="J68" s="3">
+        <v>40</v>
+      </c>
+      <c r="K68" s="3">
+        <v>50</v>
+      </c>
+      <c r="L68" s="3">
+        <v>60</v>
+      </c>
+      <c r="M68" s="3">
+        <v>40</v>
+      </c>
+      <c r="N68" s="3">
+        <v>70</v>
+      </c>
+      <c r="O68" s="3">
+        <v>50</v>
+      </c>
+      <c r="P68" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>40</v>
+      </c>
+      <c r="R68" s="3">
+        <v>70</v>
+      </c>
+      <c r="S68" s="3">
+        <v>60</v>
+      </c>
+      <c r="T68" s="3">
+        <v>50</v>
+      </c>
+      <c r="U68" s="3">
+        <v>30</v>
+      </c>
+      <c r="V68" s="3">
+        <v>50</v>
+      </c>
+      <c r="W68" s="3">
+        <v>60</v>
+      </c>
+      <c r="X68" s="3">
+        <v>50</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>60</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>40</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>70</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>40</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>20</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q69" t="s">
+        <v>118</v>
+      </c>
+      <c r="R69" t="s">
+        <v>70</v>
+      </c>
+      <c r="S69" t="s">
+        <v>70</v>
+      </c>
+      <c r="T69" t="s">
+        <v>70</v>
+      </c>
+      <c r="U69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
@@ -7496,8 +8487,24 @@
       <c r="O70" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R70">
+        <f>R50*SQRT(13)/SQRT(1-R50^2)</f>
+        <v>5.0501018965461855</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:U70" si="7">S50*SQRT(13)/SQRT(1-S50^2)</f>
+        <v>5.185229288267533</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="7"/>
+        <v>1.3538259810195306</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="7"/>
+        <v>1.6046305049728664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>14</v>
       </c>
@@ -7543,8 +8550,20 @@
       <c r="O71" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R71" t="s">
+        <v>71</v>
+      </c>
+      <c r="S71" t="s">
+        <v>71</v>
+      </c>
+      <c r="T71" t="s">
+        <v>71</v>
+      </c>
+      <c r="U71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>15</v>
       </c>
@@ -7590,8 +8609,24 @@
       <c r="O72" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R72">
+        <f>TDIST(ABS(R70),13,2)</f>
+        <v>2.2240917475373675E-4</v>
+      </c>
+      <c r="S72">
+        <f t="shared" ref="S72:U72" si="8">TDIST(ABS(S70),13,2)</f>
+        <v>1.7554714201582045E-4</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="8"/>
+        <v>0.19886107973611178</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="8"/>
+        <v>0.13258288917287125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
@@ -7637,8 +8672,23 @@
       <c r="O73" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q73" t="s">
+        <v>119</v>
+      </c>
+      <c r="R73" t="s">
+        <v>70</v>
+      </c>
+      <c r="S73" t="s">
+        <v>70</v>
+      </c>
+      <c r="T73" t="s">
+        <v>70</v>
+      </c>
+      <c r="U73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>17</v>
       </c>
@@ -7684,8 +8734,24 @@
       <c r="O74" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R74">
+        <f>R51*SQRT(13)/SQRT(1-R51^2)</f>
+        <v>1.027924318105091</v>
+      </c>
+      <c r="S74">
+        <f t="shared" ref="S74:U74" si="9">S51*SQRT(13)/SQRT(1-S51^2)</f>
+        <v>-0.4321180671941276</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="9"/>
+        <v>0.17251852631027714</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="9"/>
+        <v>-1.9470948092653555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>18</v>
       </c>
@@ -7731,8 +8797,20 @@
       <c r="O75" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R75" t="s">
+        <v>71</v>
+      </c>
+      <c r="S75" t="s">
+        <v>71</v>
+      </c>
+      <c r="T75" t="s">
+        <v>71</v>
+      </c>
+      <c r="U75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
@@ -7778,8 +8856,24 @@
       <c r="O76" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R76">
+        <f>TDIST(ABS(R74),13,2)</f>
+        <v>0.32273239761139161</v>
+      </c>
+      <c r="S76">
+        <f t="shared" ref="S76:U76" si="10">TDIST(ABS(S74),13,2)</f>
+        <v>0.67273668745612536</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="10"/>
+        <v>0.86568680163198408</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="10"/>
+        <v>7.3455261444562769E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>20</v>
       </c>
@@ -7825,8 +8919,23 @@
       <c r="O77" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q77" t="s">
+        <v>120</v>
+      </c>
+      <c r="R77" t="s">
+        <v>70</v>
+      </c>
+      <c r="S77" t="s">
+        <v>70</v>
+      </c>
+      <c r="T77" t="s">
+        <v>70</v>
+      </c>
+      <c r="U77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -7872,8 +8981,24 @@
       <c r="O78" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R78">
+        <f>R52*SQRT(13)/SQRT(1-R52^2)</f>
+        <v>3.6925005576678998</v>
+      </c>
+      <c r="S78">
+        <f t="shared" ref="S78:U78" si="11">S52*SQRT(13)/SQRT(1-S52^2)</f>
+        <v>3.4981662886977523</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="11"/>
+        <v>-2.4609045665288187</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="11"/>
+        <v>-2.8320335768794127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
@@ -7919,8 +9044,20 @@
       <c r="O79" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R79" t="s">
+        <v>71</v>
+      </c>
+      <c r="S79" t="s">
+        <v>71</v>
+      </c>
+      <c r="T79" t="s">
+        <v>71</v>
+      </c>
+      <c r="U79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>23</v>
       </c>
@@ -7966,8 +9103,24 @@
       <c r="O80" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R80">
+        <f t="shared" ref="R80:U80" si="12">TDIST(ABS(R78),13,2)</f>
+        <v>2.7084998205301344E-3</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="12"/>
+        <v>3.9278332088180995E-3</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="12"/>
+        <v>2.8620244021884001E-2</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="12"/>
+        <v>1.4135406729352304E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>24</v>
       </c>
@@ -8013,8 +9166,23 @@
       <c r="O81" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q81" t="s">
+        <v>121</v>
+      </c>
+      <c r="R81" t="s">
+        <v>70</v>
+      </c>
+      <c r="S81" t="s">
+        <v>70</v>
+      </c>
+      <c r="T81" t="s">
+        <v>70</v>
+      </c>
+      <c r="U81" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
@@ -8060,8 +9228,24 @@
       <c r="O82" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R82">
+        <f>R53*SQRT(13)/SQRT(1-R53^2)</f>
+        <v>3.7351252523809437</v>
+      </c>
+      <c r="S82">
+        <f t="shared" ref="S82:U82" si="13">S53*SQRT(13)/SQRT(1-S53^2)</f>
+        <v>3.0606243236910013</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="13"/>
+        <v>6.9268873153973844</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="13"/>
+        <v>9.3268650002455828</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>26</v>
       </c>
@@ -8107,8 +9291,20 @@
       <c r="O83" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R83" t="s">
+        <v>71</v>
+      </c>
+      <c r="S83" t="s">
+        <v>71</v>
+      </c>
+      <c r="T83" t="s">
+        <v>71</v>
+      </c>
+      <c r="U83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>27</v>
       </c>
@@ -8154,8 +9350,24 @@
       <c r="O84" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R84">
+        <f t="shared" ref="R84:U84" si="14">TDIST(ABS(R82),13,2)</f>
+        <v>2.4971979011665156E-3</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="14"/>
+        <v>9.1117797465776525E-3</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="14"/>
+        <v>1.0422191264421032E-5</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="14"/>
+        <v>4.0135915532403351E-7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -8201,8 +9413,23 @@
       <c r="O85" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q85" t="s">
+        <v>122</v>
+      </c>
+      <c r="R85" t="s">
+        <v>70</v>
+      </c>
+      <c r="S85" t="s">
+        <v>70</v>
+      </c>
+      <c r="T85" t="s">
+        <v>70</v>
+      </c>
+      <c r="U85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
@@ -8248,8 +9475,24 @@
       <c r="O86" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R86">
+        <f>R54*SQRT(13)/SQRT(1-R54^2)</f>
+        <v>2.5008939523994917</v>
+      </c>
+      <c r="S86">
+        <f t="shared" ref="S86:U86" si="15">S54*SQRT(13)/SQRT(1-S54^2)</f>
+        <v>1.9918093767470617</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="15"/>
+        <v>2.2114125711401904</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="15"/>
+        <v>2.1078937549472392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>30</v>
       </c>
@@ -8295,8 +9538,20 @@
       <c r="O87" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R87" t="s">
+        <v>71</v>
+      </c>
+      <c r="S87" t="s">
+        <v>71</v>
+      </c>
+      <c r="T87" t="s">
+        <v>71</v>
+      </c>
+      <c r="U87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>31</v>
       </c>
@@ -8342,8 +9597,24 @@
       <c r="O88" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R88">
+        <f t="shared" ref="R88:U120" si="16">TDIST(ABS(R86),13,2)</f>
+        <v>2.6543996402450226E-2</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="16"/>
+        <v>6.7827329953827314E-2</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="16"/>
+        <v>4.5532485971602983E-2</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="16"/>
+        <v>5.5018277900449136E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>32</v>
       </c>
@@ -8389,8 +9660,23 @@
       <c r="O89" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q89" t="s">
+        <v>123</v>
+      </c>
+      <c r="R89" t="s">
+        <v>70</v>
+      </c>
+      <c r="S89" t="s">
+        <v>70</v>
+      </c>
+      <c r="T89" t="s">
+        <v>70</v>
+      </c>
+      <c r="U89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>33</v>
       </c>
@@ -8436,8 +9722,24 @@
       <c r="O90" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R90">
+        <f>R55*SQRT(13)/SQRT(1-R55^2)</f>
+        <v>6.7105084636151551</v>
+      </c>
+      <c r="S90">
+        <f t="shared" ref="S90:U90" si="17">S55*SQRT(13)/SQRT(1-S55^2)</f>
+        <v>8.7209957261210551</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="17"/>
+        <v>2.510986005758717</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="17"/>
+        <v>2.6665159430374281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>34</v>
       </c>
@@ -8483,8 +9785,20 @@
       <c r="O91" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R91" t="s">
+        <v>71</v>
+      </c>
+      <c r="S91" t="s">
+        <v>71</v>
+      </c>
+      <c r="T91" t="s">
+        <v>71</v>
+      </c>
+      <c r="U91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>35</v>
       </c>
@@ -8530,8 +9844,24 @@
       <c r="O92" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R92">
+        <f t="shared" si="16"/>
+        <v>1.4471319708401144E-5</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="16"/>
+        <v>8.5878701656914108E-7</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="16"/>
+        <v>2.6043411653270385E-2</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="16"/>
+        <v>1.9392536967531682E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>36</v>
       </c>
@@ -8577,8 +9907,23 @@
       <c r="O93" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q93" t="s">
+        <v>124</v>
+      </c>
+      <c r="R93" t="s">
+        <v>70</v>
+      </c>
+      <c r="S93" t="s">
+        <v>70</v>
+      </c>
+      <c r="T93" t="s">
+        <v>70</v>
+      </c>
+      <c r="U93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>37</v>
       </c>
@@ -8624,8 +9969,24 @@
       <c r="O94" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R94">
+        <f>R56*SQRT(13)/SQRT(1-R56^2)</f>
+        <v>3.0959648508930515</v>
+      </c>
+      <c r="S94">
+        <f t="shared" ref="S94:U94" si="18">S56*SQRT(13)/SQRT(1-S56^2)</f>
+        <v>3.3928407484981014</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="18"/>
+        <v>0.69399804165265433</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="18"/>
+        <v>0.73131891397531978</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>38</v>
       </c>
@@ -8671,8 +10032,20 @@
       <c r="O95" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R95" t="s">
+        <v>71</v>
+      </c>
+      <c r="S95" t="s">
+        <v>71</v>
+      </c>
+      <c r="T95" t="s">
+        <v>71</v>
+      </c>
+      <c r="U95" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>39</v>
       </c>
@@ -8718,8 +10091,24 @@
       <c r="O96" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R96">
+        <f t="shared" si="16"/>
+        <v>8.5126312337508014E-3</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="16"/>
+        <v>4.8080103007003081E-3</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="16"/>
+        <v>0.49989761410650502</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="16"/>
+        <v>0.47756032645346047</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
@@ -8765,8 +10154,23 @@
       <c r="O97" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q97" t="s">
+        <v>125</v>
+      </c>
+      <c r="R97" t="s">
+        <v>70</v>
+      </c>
+      <c r="S97" t="s">
+        <v>70</v>
+      </c>
+      <c r="T97" t="s">
+        <v>70</v>
+      </c>
+      <c r="U97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>41</v>
       </c>
@@ -8812,8 +10216,24 @@
       <c r="O98" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R98">
+        <f>R57*SQRT(13)/SQRT(1-R57^2)</f>
+        <v>1.9512435345756647</v>
+      </c>
+      <c r="S98">
+        <f t="shared" ref="S98:U98" si="19">S57*SQRT(13)/SQRT(1-S57^2)</f>
+        <v>1.4028648507634456</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="19"/>
+        <v>-0.94504159544533239</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="19"/>
+        <v>-0.76871382836016877</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
@@ -8859,8 +10279,20 @@
       <c r="O99" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R99" t="s">
+        <v>71</v>
+      </c>
+      <c r="S99" t="s">
+        <v>71</v>
+      </c>
+      <c r="T99" t="s">
+        <v>71</v>
+      </c>
+      <c r="U99" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>43</v>
       </c>
@@ -8906,127 +10338,474 @@
       <c r="O100" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R100">
+        <f t="shared" si="16"/>
+        <v>7.291564633064064E-2</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="16"/>
+        <v>0.18408659217677392</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="16"/>
+        <v>0.3618721570718082</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="16"/>
+        <v>0.45580228082756635</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B101">
-        <f t="shared" ref="B101:O101" si="2">CORREL(B2:B16,B71:B85)</f>
+        <f t="shared" ref="B101:O101" si="20">CORREL(B2:B16,B71:B85)</f>
         <v>0.39787728664998606</v>
       </c>
       <c r="C101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.82102133232061203</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>-0.11899643026617746</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
+        <f>CORREL(E2:E16,E71:E85)</f>
         <v>0.69633808076584214</v>
       </c>
       <c r="F101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.64714569564489255</v>
       </c>
       <c r="G101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.48354995188588573</v>
       </c>
       <c r="H101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.92413421711849653</v>
       </c>
       <c r="I101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.68529836746906136</v>
       </c>
       <c r="J101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.36260477141234498</v>
       </c>
       <c r="K101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.661918685731538</v>
       </c>
       <c r="L101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.44687322898738324</v>
       </c>
       <c r="M101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.83221403879627809</v>
       </c>
       <c r="N101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.65746926383586657</v>
       </c>
       <c r="O101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.85159719270353174</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q101" t="s">
+        <v>126</v>
+      </c>
+      <c r="R101" t="s">
+        <v>70</v>
+      </c>
+      <c r="S101" t="s">
+        <v>70</v>
+      </c>
+      <c r="T101" t="s">
+        <v>70</v>
+      </c>
+      <c r="U101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B102">
-        <f t="shared" ref="B102:O102" si="3">CORREL(B50:B64,B86:B100)</f>
+        <f t="shared" ref="B102:O102" si="21">CORREL(B50:B64,B86:B100)</f>
         <v>0.49076285018167559</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.93039497166541207</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.21283800174212827</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
+        <f>CORREL(E50:E64,E86:E100)</f>
         <v>0.60779881578965012</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.85403809305722755</v>
       </c>
       <c r="G102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.81314037270029305</v>
       </c>
       <c r="H102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.8835086722015526</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.70528727206928143</v>
       </c>
       <c r="J102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.22876147129340274</v>
       </c>
       <c r="K102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66719860802097231</v>
       </c>
       <c r="L102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.83676119973999574</v>
       </c>
       <c r="M102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.70241057693068665</v>
       </c>
       <c r="N102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.81954603988674635</v>
       </c>
       <c r="O102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.9173480683188231</v>
+      </c>
+      <c r="R102">
+        <f>R58*SQRT(13)/SQRT(1-R58^2)</f>
+        <v>2.8393120361187054</v>
+      </c>
+      <c r="S102">
+        <f t="shared" ref="S102:U102" si="22">S58*SQRT(13)/SQRT(1-S58^2)</f>
+        <v>3.1839104765170267</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="22"/>
+        <v>4.880835058988283</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="22"/>
+        <v>2.4423890766630914</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R103" t="s">
+        <v>71</v>
+      </c>
+      <c r="S103" t="s">
+        <v>71</v>
+      </c>
+      <c r="T103" t="s">
+        <v>71</v>
+      </c>
+      <c r="U103" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R104">
+        <f t="shared" si="16"/>
+        <v>1.3939625002864359E-2</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="16"/>
+        <v>7.1867902191284534E-3</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="16"/>
+        <v>3.0017122777852018E-4</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="16"/>
+        <v>2.9633659016885097E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q105" t="s">
+        <v>127</v>
+      </c>
+      <c r="R105" t="s">
+        <v>70</v>
+      </c>
+      <c r="S105" t="s">
+        <v>70</v>
+      </c>
+      <c r="T105" t="s">
+        <v>70</v>
+      </c>
+      <c r="U105" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R106">
+        <f>R59*SQRT(13)/SQRT(1-R59^2)</f>
+        <v>2.8962780857801884</v>
+      </c>
+      <c r="S106">
+        <f t="shared" ref="S106:U106" si="23">S59*SQRT(13)/SQRT(1-S59^2)</f>
+        <v>1.8010610503500806</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="23"/>
+        <v>-1.2702175074031539</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="23"/>
+        <v>-0.48541303790580087</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R107" t="s">
+        <v>71</v>
+      </c>
+      <c r="S107" t="s">
+        <v>71</v>
+      </c>
+      <c r="T107" t="s">
+        <v>71</v>
+      </c>
+      <c r="U107" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R108">
+        <f t="shared" si="16"/>
+        <v>1.2496874856655628E-2</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="16"/>
+        <v>9.4924159030338143E-2</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="16"/>
+        <v>0.22627119581092542</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="16"/>
+        <v>0.63546160532914242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q109" t="s">
+        <v>128</v>
+      </c>
+      <c r="R109" t="s">
+        <v>70</v>
+      </c>
+      <c r="S109" t="s">
+        <v>70</v>
+      </c>
+      <c r="T109" t="s">
+        <v>70</v>
+      </c>
+      <c r="U109" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R110">
+        <f>R60*SQRT(13)/SQRT(1-R60^2)</f>
+        <v>4.6526328340721079</v>
+      </c>
+      <c r="S110">
+        <f t="shared" ref="S110:U110" si="24">S60*SQRT(13)/SQRT(1-S60^2)</f>
+        <v>5.4117883142208978</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="24"/>
+        <v>1.3584024053499884</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="24"/>
+        <v>2.7478080752289782</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R111" t="s">
+        <v>71</v>
+      </c>
+      <c r="S111" t="s">
+        <v>71</v>
+      </c>
+      <c r="T111" t="s">
+        <v>71</v>
+      </c>
+      <c r="U111" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R112">
+        <f t="shared" si="16"/>
+        <v>4.523574125920345E-4</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="16"/>
+        <v>1.1872210393379625E-4</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="16"/>
+        <v>0.19744239884301981</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="16"/>
+        <v>1.6607250887540906E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="Q113" t="s">
+        <v>129</v>
+      </c>
+      <c r="R113" t="s">
+        <v>70</v>
+      </c>
+      <c r="S113" t="s">
+        <v>70</v>
+      </c>
+      <c r="T113" t="s">
+        <v>70</v>
+      </c>
+      <c r="U113" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="R114">
+        <f>R61*SQRT(13)/SQRT(1-R61^2)</f>
+        <v>4.2312523114894613</v>
+      </c>
+      <c r="S114">
+        <f t="shared" ref="S114:U114" si="25">S61*SQRT(13)/SQRT(1-S61^2)</f>
+        <v>3.1461151576185253</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="25"/>
+        <v>-0.77210260622079208</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="25"/>
+        <v>-1.4421469709601331</v>
+      </c>
+    </row>
+    <row r="115" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="R115" t="s">
+        <v>71</v>
+      </c>
+      <c r="S115" t="s">
+        <v>71</v>
+      </c>
+      <c r="T115" t="s">
+        <v>71</v>
+      </c>
+      <c r="U115" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="R116">
+        <f t="shared" si="16"/>
+        <v>9.8079634526848278E-4</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="16"/>
+        <v>7.7292283359444583E-3</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="16"/>
+        <v>0.45386176388018884</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="16"/>
+        <v>0.1729173850589662</v>
+      </c>
+    </row>
+    <row r="117" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="Q117" t="s">
+        <v>130</v>
+      </c>
+      <c r="R117" t="s">
+        <v>70</v>
+      </c>
+      <c r="S117" t="s">
+        <v>70</v>
+      </c>
+      <c r="T117" t="s">
+        <v>70</v>
+      </c>
+      <c r="U117" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="R118">
+        <f>R62*SQRT(13)/SQRT(1-R62^2)</f>
+        <v>6.4105002063601155</v>
+      </c>
+      <c r="S118">
+        <f t="shared" ref="S118:U118" si="26">S62*SQRT(13)/SQRT(1-S62^2)</f>
+        <v>5.8574903557526303</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="26"/>
+        <v>3.010589978711891</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="26"/>
+        <v>2.1864013051571733</v>
+      </c>
+    </row>
+    <row r="119" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="R119" t="s">
+        <v>71</v>
+      </c>
+      <c r="S119" t="s">
+        <v>71</v>
+      </c>
+      <c r="T119" t="s">
+        <v>71</v>
+      </c>
+      <c r="U119" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="R120">
+        <f t="shared" si="16"/>
+        <v>2.3050000409375981E-5</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="16"/>
+        <v>5.615529832804702E-5</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="16"/>
+        <v>1.003247733932605E-2</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="16"/>
+        <v>4.767252032770368E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9057,8 +10836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68852211-3E56-4CFA-82DB-865B185E70C4}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="J15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X42" sqref="X42"/>
+    <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AH35" sqref="AH35:AJ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12026,7 +13805,7 @@
         <v>2.6051368029561401E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -12043,7 +13822,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -12107,7 +13886,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -12175,8 +13954,14 @@
       <c r="AD35" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH35" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -12232,7 +14017,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -12281,8 +14066,22 @@
       <c r="Q37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN37" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -12354,8 +14153,26 @@
       <c r="AF38" s="14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI38">
+        <v>303.69778947423009</v>
+      </c>
+      <c r="AJ38">
+        <v>184.87093107532394</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM38">
+        <v>112.451093012008</v>
+      </c>
+      <c r="AN38">
+        <v>88.810119281328667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -12438,8 +14255,26 @@
       <c r="AF39">
         <v>88.810119281328667</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI39">
+        <v>2644.1698599837964</v>
+      </c>
+      <c r="AJ39">
+        <v>1746.2098054799299</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM39">
+        <v>827.36287929975276</v>
+      </c>
+      <c r="AN39">
+        <v>953.3128951532002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -12522,8 +14357,26 @@
       <c r="AF40">
         <v>953.3128951532002</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI40">
+        <v>70</v>
+      </c>
+      <c r="AJ40">
+        <v>140</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM40">
+        <v>70</v>
+      </c>
+      <c r="AN40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -12587,8 +14440,20 @@
       <c r="AF41">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -12658,8 +14523,20 @@
       <c r="AE42">
         <v>911.53139950950856</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI42">
+        <v>116</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM42">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -12741,8 +14618,20 @@
       <c r="AE43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI43">
+        <v>16.763337438425342</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM43">
+        <v>5.4773736266997153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -12832,8 +14721,20 @@
       <c r="AE44">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH44" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI44">
+        <v>4.4605760323809246E-33</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM44">
+        <v>9.123254584424483E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -12903,8 +14804,20 @@
       <c r="AE45">
         <v>5.3491273089081108</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI45">
+        <v>1.6580957442687665</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM45">
+        <v>1.6552854366095326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -12986,8 +14899,20 @@
       <c r="AE46">
         <v>1.1606775782476799E-7</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH46" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI46">
+        <v>8.9211520647618493E-33</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM46">
+        <v>1.8246509168848966E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -13077,8 +15002,22 @@
       <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH47" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI47" s="13">
+        <v>1.98062600245909</v>
+      </c>
+      <c r="AJ47" s="13"/>
+      <c r="AL47" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM47" s="13">
+        <v>1.9762333088953288</v>
+      </c>
+      <c r="AN47" s="13"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
